--- a/Setup/PackageTemplate.xlsx
+++ b/Setup/PackageTemplate.xlsx
@@ -212,13 +212,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +511,7 @@
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
@@ -520,14 +520,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -622,7 +622,7 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="7.874015748031496E-2" right="0" top="7.874015748031496E-2" bottom="7.874015748031496E-2" header="0" footer="0"/>
-  <pageSetup paperSize="258" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="7.874015748031496E-2" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="258" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>